--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Electronica\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{622EAA2E-986F-4AB0-AE36-8ED790877720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA01847-F257-4F24-B3A1-89EE33D788E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{1BEB6431-7E9A-4E1E-840E-14318A6F595D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>emisor y receptor IR</t>
+  </si>
+  <si>
+    <t>sensor seguimiento</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,11 +832,11 @@
         <v>2215</v>
       </c>
       <c r="C12" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>8860</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,12 +870,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1809</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3</v>
+      </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -883,7 +892,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="15">
         <f>SUM(D2:D15)</f>
-        <v>72199</v>
+        <v>70981</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Electronica\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Electronica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA01847-F257-4F24-B3A1-89EE33D788E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAA03E-45B3-496B-85F5-C7541A322C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{1BEB6431-7E9A-4E1E-840E-14318A6F595D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1BEB6431-7E9A-4E1E-840E-14318A6F595D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>sensor seguimiento</t>
+  </si>
+  <si>
+    <t>Sensor Shield V5</t>
+  </si>
+  <si>
+    <t>Display 20x4 + conversor I2C</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -332,6 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -650,16 +658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D756A-B966-4C2D-85A1-8F20218DE87C}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -669,10 +677,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -681,7 +689,7 @@
       <c r="B2" s="4">
         <v>4700</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
       <c r="D2" s="4">
@@ -697,7 +705,7 @@
         <f>(5560/4)</f>
         <v>1390</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>4</v>
       </c>
       <c r="D3" s="3">
@@ -712,11 +720,11 @@
       <c r="B4" s="3">
         <v>3900</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D3:D15" si="0">(B4*C4)</f>
+        <f t="shared" ref="D4:D15" si="0">(B4*C4)</f>
         <v>15600</v>
       </c>
     </row>
@@ -727,7 +735,7 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -740,7 +748,7 @@
       <c r="B6" s="3">
         <v>7400</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
       <c r="D6" s="3">
@@ -755,7 +763,7 @@
       <c r="B7" s="3">
         <v>3395</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
       <c r="D7" s="3">
@@ -770,7 +778,7 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="3">
@@ -785,7 +793,7 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
       <c r="D9" s="3">
@@ -800,7 +808,7 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>5</v>
       </c>
       <c r="D10" s="3">
@@ -816,7 +824,7 @@
         <f>(6589)</f>
         <v>6589</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="3">
@@ -831,7 +839,7 @@
       <c r="B12" s="3">
         <v>2215</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -846,7 +854,7 @@
       <c r="B13" s="3">
         <v>2300</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>2</v>
       </c>
       <c r="D13" s="3">
@@ -861,7 +869,7 @@
       <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="3">
@@ -869,14 +877,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6">
         <v>1809</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>3</v>
       </c>
       <c r="D15" s="6">
@@ -884,31 +892,46 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="1">(B16*C16)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6">
+        <v>13799</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>13799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="15">
-        <f>SUM(D2:D15)</f>
-        <v>70981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="14">
+        <f>SUM(D2:D17)</f>
+        <v>91280</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
